--- a/biology/Médecine/Georgios_Papanicolaou/Georgios_Papanicolaou.xlsx
+++ b/biology/Médecine/Georgios_Papanicolaou/Georgios_Papanicolaou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geórgios Nikoláou Papanikoláou (grec moderne : Γεώργιος Νικολάου Παπανικολάου), connu à l’étranger sous le nom de Georges Nicholas Papanicolaou (né le 13 mai 1883 à Kymi sur l'île d'Eubée, en Grèce, et mort le 19 février 1962 à Miami) est un pionnier en cytologie et en détection précoce du cancer. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a étudié à l'université d'Athènes où il a reçu son diplôme de médecin en 1904. Six ans après, il obtient son doctorat de l'université de Munich, Allemagne. 
 En 1913, il émigre aux États-Unis afin de travailler dans le département de pathologie de l'hôpital de New York et dans le département d'anatomie de l’école de médecine de l'université Cornell. Lors d'un colloque en 1928 il fait un exposé sur la possibilité du diagnostic du cancer du col utérin au moyen d'un frottis vaginal. Mais, faute d'avoir pu alors reposer sur un nombre de cas suffisants, son travail n'a pas été apprécié à sa juste valeur. 
